--- a/evaluate/results/data_correct_info.xlsx
+++ b/evaluate/results/data_correct_info.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Bachelor_research_project\evaluate\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD571C-7BE4-462C-ADB0-05F20D62AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550A704-9DC6-4B3F-8C7C-14697D740751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -203,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +228,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,11 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K52" sqref="B52:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2352,6 +2374,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <f t="shared" ref="B52:J52" si="0">SUM(B2:B51)</f>
+        <v>370</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>717</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>543</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="K52" s="2">
+        <f>SUM(K2:K51)</f>
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
